--- a/data/trans_orig/Q64C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas que trabajan a la semana</t>
+          <t>Número medio de horas que trabaja a la semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,47</t>
+          <t>39,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,34</t>
+          <t>30,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,94</t>
+          <t>36,26</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,7; 41,22</t>
+          <t>37,65; 41,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,29; 33,46</t>
+          <t>25,43; 33,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,85; 37,63</t>
+          <t>33,81; 37,84</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,04</t>
+          <t>34,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,62</t>
+          <t>34,8</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,56</t>
+          <t>34,66</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,21; 40,59</t>
+          <t>22,6; 40,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,66; 36,24</t>
+          <t>31,67; 36,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,82; 38,47</t>
+          <t>26,52; 38,28</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,2</t>
+          <t>38,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,7</t>
+          <t>35,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,93</t>
+          <t>36,95</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,25; 38,99</t>
+          <t>37,19; 38,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,85; 36,45</t>
+          <t>34,88; 36,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,27; 37,47</t>
+          <t>36,29; 37,49</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,86</t>
+          <t>35,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,27 +1111,27 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>34,88</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39,74</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39,08</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37,51</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>35,35</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>39,74</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>39,08</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>37,51</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>37,28</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,0; 39,95</t>
+          <t>27,02; 39,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,63; 35,85</t>
+          <t>31,82; 35,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,28; 37,87</t>
+          <t>27,91; 37,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q64C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,82; 42,89</t>
+          <t>40,66; 42,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,33; 45,58</t>
+          <t>42,4; 45,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,94; 43,98</t>
+          <t>39,45; 44,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,65; 41,09</t>
+          <t>37,48; 41,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,65; 41,07</t>
+          <t>35,42; 41,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,06; 38,33</t>
+          <t>33,7; 38,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,49; 39,4</t>
+          <t>33,47; 39,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,43; 33,69</t>
+          <t>26,19; 33,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,66; 41,86</t>
+          <t>39,7; 41,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,11; 41,91</t>
+          <t>39,1; 41,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,25; 41,72</t>
+          <t>38,24; 41,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,81; 37,84</t>
+          <t>33,86; 38,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,22; 42,42</t>
+          <t>41,24; 42,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,69; 41,99</t>
+          <t>40,76; 41,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,2; 40,56</t>
+          <t>39,21; 40,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,6; 40,58</t>
+          <t>22,47; 40,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,27; 38,23</t>
+          <t>36,24; 38,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,87; 36,98</t>
+          <t>34,98; 37,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,39; 36,38</t>
+          <t>34,37; 36,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,67; 36,16</t>
+          <t>31,57; 36,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,72; 40,8</t>
+          <t>39,69; 40,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,73; 39,88</t>
+          <t>38,73; 39,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,46; 38,64</t>
+          <t>37,5; 38,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,52; 38,28</t>
+          <t>26,07; 38,26</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,68; 39,55</t>
+          <t>37,7; 39,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,41; 40,71</t>
+          <t>38,38; 40,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,05; 38,3</t>
+          <t>36,11; 38,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,19; 38,98</t>
+          <t>37,1; 39,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,49; 37,39</t>
+          <t>35,42; 37,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,39; 36,72</t>
+          <t>34,23; 36,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,27; 34,82</t>
+          <t>32,35; 34,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,88; 36,44</t>
+          <t>34,86; 36,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,94; 38,4</t>
+          <t>36,95; 38,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,03; 38,75</t>
+          <t>36,88; 38,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,65; 36,3</t>
+          <t>34,62; 36,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,29; 37,49</t>
+          <t>36,37; 37,57</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,67; 41,6</t>
+          <t>40,69; 41,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,78; 41,81</t>
+          <t>40,74; 41,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,83; 40,03</t>
+          <t>38,9; 40,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,02; 39,92</t>
+          <t>25,74; 39,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,34; 37,94</t>
+          <t>36,34; 37,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,14; 36,69</t>
+          <t>35,12; 36,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,12; 35,63</t>
+          <t>34,17; 35,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,82; 35,77</t>
+          <t>32,16; 35,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,34; 40,18</t>
+          <t>39,36; 40,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,59; 39,53</t>
+          <t>38,64; 39,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,06; 37,99</t>
+          <t>37,04; 37,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 37,77</t>
+          <t>28,27; 37,72</t>
         </is>
       </c>
     </row>
